--- a/List of kommunes.xlsx
+++ b/List of kommunes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\DTU\courses\Thesis\Daniela\Model\pre data dk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EBA817-3D41-41BA-AFC2-4BC125EBB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A414A-B889-4925-8B39-EE5BEDDD0D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,9 +630,6 @@
     <t>213;265</t>
   </si>
   <si>
-    <t>208;209;210;211;212;213;214;215;265;287;</t>
-  </si>
-  <si>
     <t>192;193</t>
   </si>
   <si>
@@ -940,6 +937,9 @@
   </si>
   <si>
     <t>364;305;316</t>
+  </si>
+  <si>
+    <t>208;209;210;211;212;213;214;215;265;287</t>
   </si>
 </sst>
 </file>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,8 +1371,7 @@
     <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.5546875" customWidth="1"/>
+    <col min="9" max="10" width="51.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1468,7 +1467,7 @@
         <v>DK1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>181</v>
@@ -1958,7 +1957,7 @@
         <v>197</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -1987,13 +1986,13 @@
         <v>DK1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M19" s="1"/>
     </row>
@@ -2049,10 +2048,10 @@
         <v>DK1</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="J21" s="3"/>
       <c r="M21" s="1"/>
@@ -2082,7 +2081,7 @@
         <v>DK2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I22" s="3">
         <v>101</v>
@@ -2117,10 +2116,10 @@
         <v>DK2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J23" s="3"/>
       <c r="M23" s="1"/>
@@ -2148,13 +2147,13 @@
         <v>DK1</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="M24" s="1"/>
     </row>
@@ -2181,13 +2180,13 @@
         <v>DK2</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="M25" s="1"/>
     </row>
@@ -2216,13 +2215,13 @@
         <v>DK1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M26" s="1"/>
     </row>
@@ -2251,13 +2250,13 @@
         <v>DK2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M27" s="1"/>
     </row>
@@ -2286,10 +2285,10 @@
         <v>DK2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J28" s="3"/>
       <c r="M28" s="1"/>
@@ -2317,13 +2316,13 @@
         <v>DK2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M29" s="1"/>
     </row>
@@ -2350,13 +2349,13 @@
         <v>DK2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M30" s="1"/>
     </row>
@@ -2416,13 +2415,13 @@
         <v>DK2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M32" s="1"/>
     </row>
@@ -2451,10 +2450,10 @@
         <v>DK2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J33" s="3"/>
       <c r="M33" s="1"/>
@@ -2484,13 +2483,13 @@
         <v>DK2</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="M34" s="1"/>
     </row>
@@ -2519,10 +2518,10 @@
         <v>DK1</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J35" s="3">
         <v>266</v>
@@ -2554,13 +2553,13 @@
         <v>DK2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -2589,10 +2588,10 @@
         <v>DK1</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J37" s="3"/>
       <c r="M37" s="1"/>
@@ -2653,13 +2652,13 @@
         <v>DK2</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M39" s="1"/>
     </row>
@@ -2688,13 +2687,13 @@
         <v>DK1</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M40" s="1"/>
     </row>
@@ -2723,13 +2722,13 @@
         <v>DK2</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M41" s="1"/>
     </row>
@@ -2758,7 +2757,7 @@
         <v>DK1</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I42" s="3">
         <v>201</v>
@@ -2791,13 +2790,13 @@
         <v>DK2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M43" s="1"/>
     </row>
@@ -2826,10 +2825,10 @@
         <v>DK2</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J44" s="3">
         <v>179</v>
@@ -2861,13 +2860,13 @@
         <v>DK1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I45" s="3">
         <v>248</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M45" s="1"/>
     </row>
@@ -2962,13 +2961,13 @@
         <v>DK2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I48" s="3">
         <v>70</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M48" s="1"/>
     </row>
@@ -2997,13 +2996,13 @@
         <v>DK1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I49" s="3">
         <v>198</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M49" s="1"/>
     </row>
@@ -3030,13 +3029,13 @@
         <v>DK2</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I50" s="3">
         <v>122</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M50" s="1"/>
     </row>
@@ -3065,13 +3064,13 @@
         <v>DK1</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I51" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="M51" s="1"/>
     </row>
@@ -3100,13 +3099,13 @@
         <v>DK2</v>
       </c>
       <c r="H52" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="J52" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M52" s="1"/>
     </row>
@@ -3135,10 +3134,10 @@
         <v>DK1</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="J53" s="3"/>
       <c r="M53" s="1"/>
@@ -3168,13 +3167,13 @@
         <v>DK2</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="M54" s="1"/>
     </row>
@@ -3203,13 +3202,13 @@
         <v>DK1</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I55" s="2">
         <v>261202</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M55" s="1"/>
     </row>
@@ -3294,13 +3293,13 @@
         <v>DK2</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M58" s="1"/>
     </row>
@@ -3329,7 +3328,7 @@
         <v>DK1</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I59" s="3">
         <v>285</v>
@@ -3364,13 +3363,13 @@
         <v>DK2</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M60" s="1"/>
     </row>
@@ -3397,10 +3396,10 @@
         <v>DK2</v>
       </c>
       <c r="H61" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="J61" s="3"/>
       <c r="M61" s="1"/>
@@ -3430,13 +3429,13 @@
         <v>DK1</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M62" s="1"/>
     </row>
@@ -3465,13 +3464,13 @@
         <v>DK1</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I63" s="3">
         <v>256</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M63" s="1"/>
     </row>
@@ -3533,13 +3532,13 @@
         <v>DK2</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M65" s="1"/>
     </row>
@@ -3568,10 +3567,10 @@
         <v>DK1</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J66" s="3">
         <v>340</v>
@@ -3603,10 +3602,10 @@
         <v>DK1</v>
       </c>
       <c r="H67" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="J67" s="3"/>
       <c r="M67" s="1"/>
@@ -3636,10 +3635,10 @@
         <v>DK1</v>
       </c>
       <c r="H68" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="J68" s="3"/>
       <c r="M68" s="1"/>
@@ -3698,13 +3697,13 @@
         <v>DK1</v>
       </c>
       <c r="H70" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="M70" s="1"/>
     </row>
@@ -3768,13 +3767,13 @@
         <v>DK1</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M72" s="1"/>
     </row>
@@ -3803,10 +3802,10 @@
         <v>DK1</v>
       </c>
       <c r="H73" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="J73" s="3"/>
       <c r="M73" s="1"/>
@@ -3836,13 +3835,13 @@
         <v>DK1</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M74" s="1"/>
     </row>
@@ -3869,10 +3868,10 @@
         <v>DK2</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J75" s="3">
         <v>166</v>
@@ -3902,10 +3901,10 @@
         <v>DK2</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J76" s="3"/>
       <c r="M76" s="1"/>
@@ -3935,13 +3934,13 @@
         <v>DK2</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M77" s="1"/>
     </row>
@@ -4100,13 +4099,13 @@
         <v>DK1</v>
       </c>
       <c r="H82" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="M82" s="1"/>
     </row>
@@ -4135,13 +4134,13 @@
         <v>DK2</v>
       </c>
       <c r="H83" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="M83" s="1"/>
     </row>
@@ -4168,13 +4167,13 @@
         <v>DK2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M84" s="1"/>
     </row>
@@ -4238,13 +4237,13 @@
         <v>DK2</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M86" s="1"/>
     </row>
@@ -4273,10 +4272,10 @@
         <v>DK2</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J87" s="3"/>
       <c r="M87" s="1"/>
@@ -4306,10 +4305,10 @@
         <v>DK1</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J88" s="3">
         <v>297</v>
@@ -4444,13 +4443,13 @@
         <v>DK1</v>
       </c>
       <c r="H92" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J92" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="M92" s="1"/>
     </row>
@@ -4512,10 +4511,10 @@
         <v>DK2</v>
       </c>
       <c r="H94" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I94" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="J94" s="3"/>
       <c r="M94" s="1"/>
@@ -4578,13 +4577,13 @@
         <v>DK1</v>
       </c>
       <c r="H96" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I96" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I96" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="J96" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M96" s="1"/>
     </row>
@@ -4613,13 +4612,13 @@
         <v>DK1</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M97" s="1"/>
     </row>
@@ -4648,13 +4647,13 @@
         <v>DK1</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M98" s="1"/>
     </row>
@@ -4683,13 +4682,13 @@
         <v>DK1</v>
       </c>
       <c r="H99" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I99" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I99" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="J99" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M99" s="1"/>
     </row>

--- a/List of kommunes.xlsx
+++ b/List of kommunes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Desktop\DTU\courses\Thesis\Daniela\Model\pre data dk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7A414A-B889-4925-8B39-EE5BEDDD0D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A5F5DE-6E13-41C7-9605-A23BFE4A73F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="307">
   <si>
     <t>Location</t>
   </si>
@@ -555,12 +555,6 @@
     <t>DK1/DK2</t>
   </si>
   <si>
-    <t>252;253;294</t>
-  </si>
-  <si>
-    <t>194;216;217;245;279;280;281;282;296;324;325;326;327;339</t>
-  </si>
-  <si>
     <t>115;182</t>
   </si>
   <si>
@@ -582,9 +576,6 @@
     <t>217;282;327</t>
   </si>
   <si>
-    <t>234;243;267;268;274;321;322;323</t>
-  </si>
-  <si>
     <t>234;243;274</t>
   </si>
   <si>
@@ -612,9 +603,6 @@
     <t>55;73;88;169;183</t>
   </si>
   <si>
-    <t>55;56;57;58;73;88;102;103;169;183</t>
-  </si>
-  <si>
     <t>55;124</t>
   </si>
   <si>
@@ -669,9 +657,6 @@
     <t>207;290</t>
   </si>
   <si>
-    <t>139;141;143;145;148</t>
-  </si>
-  <si>
     <t>100;145;148</t>
   </si>
   <si>
@@ -699,9 +684,6 @@
     <t>89;118;158;161</t>
   </si>
   <si>
-    <t>89;118;158;160;161</t>
-  </si>
-  <si>
     <t>266;287</t>
   </si>
   <si>
@@ -792,9 +774,6 @@
     <t>75;123;171</t>
   </si>
   <si>
-    <t>74;75;76;77;78;171;178</t>
-  </si>
-  <si>
     <t>196;202</t>
   </si>
   <si>
@@ -849,9 +828,6 @@
     <t>221;283;284</t>
   </si>
   <si>
-    <t>220;221;283;284</t>
-  </si>
-  <si>
     <t>238;275</t>
   </si>
   <si>
@@ -930,16 +906,55 @@
     <t>276;336</t>
   </si>
   <si>
-    <t>308;309;310;311;312;316</t>
-  </si>
-  <si>
     <t>264;305;311</t>
   </si>
   <si>
     <t>364;305;316</t>
   </si>
   <si>
-    <t>208;209;210;211;212;213;214;215;265;287</t>
+    <t>264;305;308;309;310;311;312;316</t>
+  </si>
+  <si>
+    <t>54;55;56;57;58;73;88;102;103;169;183</t>
+  </si>
+  <si>
+    <t>74;75;76;77;78;129;130;131;132;133;134;171;178</t>
+  </si>
+  <si>
+    <t>137;139;141;143;145;148</t>
+  </si>
+  <si>
+    <t>104;125;126;155;156;159</t>
+  </si>
+  <si>
+    <t>89;118;158;160;161;163</t>
+  </si>
+  <si>
+    <t>90;162;164;185</t>
+  </si>
+  <si>
+    <t>101;168</t>
+  </si>
+  <si>
+    <t>85;86;180;181;186</t>
+  </si>
+  <si>
+    <t>166;190</t>
+  </si>
+  <si>
+    <t>220;221;283;284;218;219;229;230;231;232</t>
+  </si>
+  <si>
+    <t>194;216;217;244;245;250;279;280;281;282;296;324;325;326;327;339</t>
+  </si>
+  <si>
+    <t>195;234;243;267;268;270;271;272;273;274;321;322;323</t>
+  </si>
+  <si>
+    <t>252;253;292;294</t>
+  </si>
+  <si>
+    <t>208;209;210;211;212;213;214;215;237;240;241;242;265;287;337;338</t>
   </si>
 </sst>
 </file>
@@ -1357,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,7 +1386,8 @@
     <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1398,13 +1414,13 @@
         <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1432,13 +1448,13 @@
         <v>DK1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I2" s="2">
         <v>253</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -1467,13 +1483,13 @@
         <v>DK1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -1556,13 +1572,13 @@
         <v>DK2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -1624,13 +1640,13 @@
         <v>DK1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>182</v>
+        <v>304</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -1657,10 +1673,10 @@
         <v>DK1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J9" s="3"/>
       <c r="M9" s="1"/>
@@ -1687,13 +1703,13 @@
         <v>DK2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1722,10 +1738,10 @@
         <v>DK1</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J11" s="3"/>
       <c r="M11" s="1"/>
@@ -1815,13 +1831,13 @@
         <v>DK1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M14" s="1"/>
     </row>
@@ -1848,13 +1864,13 @@
         <v>DK2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="M15" s="1"/>
     </row>
@@ -1916,13 +1932,13 @@
         <v>DK2</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I17" s="3">
         <v>117</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M17" s="1"/>
     </row>
@@ -1951,13 +1967,13 @@
         <v>DK1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -1986,13 +2002,13 @@
         <v>DK1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M19" s="1"/>
     </row>
@@ -2048,10 +2064,10 @@
         <v>DK1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J21" s="3"/>
       <c r="M21" s="1"/>
@@ -2081,13 +2097,13 @@
         <v>DK2</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I22" s="3">
         <v>101</v>
       </c>
-      <c r="J22" s="3">
-        <v>101</v>
+      <c r="J22" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="M22" s="1"/>
     </row>
@@ -2116,10 +2132,10 @@
         <v>DK2</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3"/>
       <c r="M23" s="1"/>
@@ -2147,13 +2163,13 @@
         <v>DK1</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M24" s="1"/>
     </row>
@@ -2180,13 +2196,13 @@
         <v>DK2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M25" s="1"/>
     </row>
@@ -2215,13 +2231,13 @@
         <v>DK1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M26" s="1"/>
     </row>
@@ -2250,13 +2266,13 @@
         <v>DK2</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
       <c r="M27" s="1"/>
     </row>
@@ -2285,10 +2301,10 @@
         <v>DK2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="J28" s="3"/>
       <c r="M28" s="1"/>
@@ -2316,13 +2332,13 @@
         <v>DK2</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M29" s="1"/>
     </row>
@@ -2349,13 +2365,13 @@
         <v>DK2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M30" s="1"/>
     </row>
@@ -2415,13 +2431,13 @@
         <v>DK2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M32" s="1"/>
     </row>
@@ -2450,10 +2466,10 @@
         <v>DK2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J33" s="3"/>
       <c r="M33" s="1"/>
@@ -2483,13 +2499,13 @@
         <v>DK2</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="M34" s="1"/>
     </row>
@@ -2518,10 +2534,10 @@
         <v>DK1</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J35" s="3">
         <v>266</v>
@@ -2553,13 +2569,13 @@
         <v>DK2</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -2588,10 +2604,10 @@
         <v>DK1</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J37" s="3"/>
       <c r="M37" s="1"/>
@@ -2652,13 +2668,13 @@
         <v>DK2</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M39" s="1"/>
     </row>
@@ -2687,13 +2703,13 @@
         <v>DK1</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M40" s="1"/>
     </row>
@@ -2722,13 +2738,13 @@
         <v>DK2</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M41" s="1"/>
     </row>
@@ -2757,7 +2773,7 @@
         <v>DK1</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I42" s="3">
         <v>201</v>
@@ -2790,13 +2806,13 @@
         <v>DK2</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M43" s="1"/>
     </row>
@@ -2825,10 +2841,10 @@
         <v>DK2</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="J44" s="3">
         <v>179</v>
@@ -2860,13 +2876,13 @@
         <v>DK1</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I45" s="3">
         <v>248</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M45" s="1"/>
     </row>
@@ -2961,13 +2977,13 @@
         <v>DK2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I48" s="3">
         <v>70</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M48" s="1"/>
     </row>
@@ -2996,13 +3012,13 @@
         <v>DK1</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I49" s="3">
         <v>198</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M49" s="1"/>
     </row>
@@ -3029,13 +3045,13 @@
         <v>DK2</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I50" s="3">
         <v>122</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M50" s="1"/>
     </row>
@@ -3064,13 +3080,13 @@
         <v>DK1</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M51" s="1"/>
     </row>
@@ -3099,13 +3115,13 @@
         <v>DK2</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M52" s="1"/>
     </row>
@@ -3134,10 +3150,10 @@
         <v>DK1</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J53" s="3"/>
       <c r="M53" s="1"/>
@@ -3167,13 +3183,13 @@
         <v>DK2</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="M54" s="1"/>
     </row>
@@ -3202,13 +3218,13 @@
         <v>DK1</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I55" s="2">
         <v>261202</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="M55" s="1"/>
     </row>
@@ -3293,13 +3309,13 @@
         <v>DK2</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M58" s="1"/>
     </row>
@@ -3328,7 +3344,7 @@
         <v>DK1</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I59" s="3">
         <v>285</v>
@@ -3363,13 +3379,13 @@
         <v>DK2</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="M60" s="1"/>
     </row>
@@ -3396,12 +3412,14 @@
         <v>DK2</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J61" s="3"/>
+        <v>252</v>
+      </c>
+      <c r="J61" s="3">
+        <v>262</v>
+      </c>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -3429,13 +3447,13 @@
         <v>DK1</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M62" s="1"/>
     </row>
@@ -3464,13 +3482,13 @@
         <v>DK1</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I63" s="3">
         <v>256</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M63" s="1"/>
     </row>
@@ -3532,13 +3550,13 @@
         <v>DK2</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M65" s="1"/>
     </row>
@@ -3567,10 +3585,10 @@
         <v>DK1</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J66" s="3">
         <v>340</v>
@@ -3602,10 +3620,10 @@
         <v>DK1</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J67" s="3"/>
       <c r="M67" s="1"/>
@@ -3635,10 +3653,10 @@
         <v>DK1</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="J68" s="3"/>
       <c r="M68" s="1"/>
@@ -3697,13 +3715,13 @@
         <v>DK1</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="M70" s="1"/>
     </row>
@@ -3767,13 +3785,13 @@
         <v>DK1</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M72" s="1"/>
     </row>
@@ -3802,10 +3820,10 @@
         <v>DK1</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J73" s="3"/>
       <c r="M73" s="1"/>
@@ -3835,13 +3853,13 @@
         <v>DK1</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M74" s="1"/>
     </row>
@@ -3868,13 +3886,13 @@
         <v>DK2</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J75" s="3">
-        <v>166</v>
+        <v>269</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="M75" s="1"/>
     </row>
@@ -3901,10 +3919,10 @@
         <v>DK2</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J76" s="3"/>
       <c r="M76" s="1"/>
@@ -3934,13 +3952,13 @@
         <v>DK2</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M77" s="1"/>
     </row>
@@ -4099,13 +4117,13 @@
         <v>DK1</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M82" s="1"/>
     </row>
@@ -4134,13 +4152,13 @@
         <v>DK2</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M83" s="1"/>
     </row>
@@ -4167,13 +4185,13 @@
         <v>DK2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M84" s="1"/>
     </row>
@@ -4237,13 +4255,13 @@
         <v>DK2</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M86" s="1"/>
     </row>
@@ -4272,10 +4290,10 @@
         <v>DK2</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="J87" s="3"/>
       <c r="M87" s="1"/>
@@ -4305,10 +4323,10 @@
         <v>DK1</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J88" s="3">
         <v>297</v>
@@ -4408,13 +4426,13 @@
         <v>DK2</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M91" s="1"/>
     </row>
@@ -4443,13 +4461,13 @@
         <v>DK1</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M92" s="1"/>
     </row>
@@ -4511,10 +4529,10 @@
         <v>DK2</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J94" s="3"/>
       <c r="M94" s="1"/>
@@ -4577,13 +4595,13 @@
         <v>DK1</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M96" s="1"/>
     </row>
@@ -4612,13 +4630,13 @@
         <v>DK1</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M97" s="1"/>
     </row>
@@ -4647,13 +4665,13 @@
         <v>DK1</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M98" s="1"/>
     </row>
@@ -4682,13 +4700,13 @@
         <v>DK1</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="M99" s="1"/>
     </row>
